--- a/dev/package/collection/combo/data_dictionaries.xlsx
+++ b/dev/package/collection/combo/data_dictionaries.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ffce2ed1cf6c3ec/Education/2. UWA/Year Four/CITS4001 Thesis/honours/dev/package/collection/combo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Documents\GitHub\honours\dev\package\collection\combo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30696" windowHeight="6636" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30696" windowHeight="6636"/>
   </bookViews>
   <sheets>
-    <sheet name="thirteen" sheetId="2" r:id="rId1"/>
-    <sheet name="fourteen" sheetId="3" r:id="rId2"/>
-    <sheet name="fifteen" sheetId="1" r:id="rId3"/>
-    <sheet name="sixteen" sheetId="4" r:id="rId4"/>
-    <sheet name="crawl" sheetId="5" r:id="rId5"/>
+    <sheet name="combo" sheetId="6" r:id="rId1"/>
+    <sheet name="thirteen" sheetId="2" r:id="rId2"/>
+    <sheet name="fourteen" sheetId="3" r:id="rId3"/>
+    <sheet name="fifteen" sheetId="1" r:id="rId4"/>
+    <sheet name="sixteen" sheetId="4" r:id="rId5"/>
+    <sheet name="crawl" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">combo!$A$1:$G$56</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="319">
   <si>
     <t>company_category_list</t>
   </si>
@@ -301,14 +305,706 @@
   </si>
   <si>
     <t>Multi-V</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>norm_k2</t>
+  </si>
+  <si>
+    <t>norm_pval</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>skew</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>acquisition_id</t>
+  </si>
+  <si>
+    <t>c:28</t>
+  </si>
+  <si>
+    <t>acquiring_object_id</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>c:596</t>
+  </si>
+  <si>
+    <t>acquired_object_id</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>term_code</t>
+  </si>
+  <si>
+    <t>http://www.prweb.com/releases/115/offices/prweb10550399.htm</t>
+  </si>
+  <si>
+    <t>source_url</t>
+  </si>
+  <si>
+    <t>Capital Report Index</t>
+  </si>
+  <si>
+    <t>source_description</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>p:183805</t>
+  </si>
+  <si>
+    <t>object_id</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>degree_type</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>funding_round_id</t>
+  </si>
+  <si>
+    <t>raised_amount</t>
+  </si>
+  <si>
+    <t>pre_money_valuation_usd</t>
+  </si>
+  <si>
+    <t>pre_money_valuation</t>
+  </si>
+  <si>
+    <t>post_money_valuation_usd</t>
+  </si>
+  <si>
+    <t>post_money_valuation</t>
+  </si>
+  <si>
+    <t>participants</t>
+  </si>
+  <si>
+    <t>is_first_round</t>
+  </si>
+  <si>
+    <t>is_last_round</t>
+  </si>
+  <si>
+    <t>c:169096</t>
+  </si>
+  <si>
+    <t>unattributed</t>
+  </si>
+  <si>
+    <t>raised_currency_code</t>
+  </si>
+  <si>
+    <t>pre_money_currency_code</t>
+  </si>
+  <si>
+    <t>post_money_currency_code</t>
+  </si>
+  <si>
+    <t>http://www.tyro.com/pages/show/53</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>arun</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>funds</t>
+  </si>
+  <si>
+    <t>fund_id</t>
+  </si>
+  <si>
+    <t>f:12</t>
+  </si>
+  <si>
+    <t>Fund I</t>
+  </si>
+  <si>
+    <t>http://www.archventure.com/about_facts.html#Fund_Chronology</t>
+  </si>
+  <si>
+    <t>c:169876</t>
+  </si>
+  <si>
+    <t>funded_object_id</t>
+  </si>
+  <si>
+    <t>f:367</t>
+  </si>
+  <si>
+    <t>investor_object_id</t>
+  </si>
+  <si>
+    <t>ipos</t>
+  </si>
+  <si>
+    <t>ipo_id</t>
+  </si>
+  <si>
+    <t>valuation_amount</t>
+  </si>
+  <si>
+    <t>c:851</t>
+  </si>
+  <si>
+    <t>valuation_currency_code</t>
+  </si>
+  <si>
+    <t>NASDAQ:OTEX</t>
+  </si>
+  <si>
+    <t>stock_symbol</t>
+  </si>
+  <si>
+    <t>http://www.bizjournals.com/sanjose/news/2013/09/19/rocket-fuel-hits-top-of-ipo-target.html?ana=RSS&amp;s=article_search&amp;utm_source=twitterfeed&amp;utm_medium=twitter&amp;utm_campaign=Feed%3A+bizj_sanjose+%28Silicon+Valley+%2F+San+Jose+Business+Journal%29</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>milestones</t>
+  </si>
+  <si>
+    <t>r:1005</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>milestone_code</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>http://www.lead411.com/san-francisco-companies.html</t>
+  </si>
+  <si>
+    <t>TechCrunch</t>
+  </si>
+  <si>
+    <t>entity_id</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>logo_width</t>
+  </si>
+  <si>
+    <t>logo_height</t>
+  </si>
+  <si>
+    <t>investment_rounds</t>
+  </si>
+  <si>
+    <t>invested_companies</t>
+  </si>
+  <si>
+    <t>relationships</t>
+  </si>
+  <si>
+    <t>p:260741</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>entity_type</t>
+  </si>
+  <si>
+    <t>c:2728</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>Bob Hebig</t>
+  </si>
+  <si>
+    <t>bob hebig</t>
+  </si>
+  <si>
+    <t>normalized_name</t>
+  </si>
+  <si>
+    <t>/person/bob-hebig-4</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>about.me</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>http://m.www.yahoo.com</t>
+  </si>
+  <si>
+    <t>iJetMedia</t>
+  </si>
+  <si>
+    <t>twitter_username</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/crunchbase_prod_assets/assets/images/resized/0004/2921/42921v1-max-250x250.jpg</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>Tempeest provides location-based mobile games that can be used for city marketing.</t>
+  </si>
+  <si>
+    <t>short_description</t>
+  </si>
+  <si>
+    <t>private equity</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>garage-door-springs, broken-spring-repair--replacement, torsion-spring-extension-springs, garage-door-opener, garage-door-remote, garage-door-sensors, garage-door-replacement--installation</t>
+  </si>
+  <si>
+    <t>tag_list</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>dhawalarco</t>
+  </si>
+  <si>
+    <t>offices</t>
+  </si>
+  <si>
+    <t>office_id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>c:189440</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>SF Bay</t>
+  </si>
+  <si>
+    <t>One Broadway</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>Suite 200</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>Unaffiliated</t>
+  </si>
+  <si>
+    <t>affiliation_name</t>
+  </si>
+  <si>
+    <t>relationship_id</t>
+  </si>
+  <si>
+    <t>is_past</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>p:35257</t>
+  </si>
+  <si>
+    <t>person_object_id</t>
+  </si>
+  <si>
+    <t>c:1242</t>
+  </si>
+  <si>
+    <t>relationship_object_id</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>crawl</t>
+  </si>
+  <si>
+    <t>location_country</t>
+  </si>
+  <si>
+    <t>location_state</t>
+  </si>
+  <si>
+    <t>location_region</t>
+  </si>
+  <si>
+    <t>location_city</t>
+  </si>
+  <si>
+    <t>funding_total_value</t>
+  </si>
+  <si>
+    <t>acquisitions_total_value</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>investments_total_value</t>
+  </si>
+  <si>
+    <t>keys_permalink</t>
+  </si>
+  <si>
+    <t>funding_rounds_occured</t>
+  </si>
+  <si>
+    <t>funding_rounds_values</t>
+  </si>
+  <si>
+    <t>funding_rounds_dates</t>
+  </si>
+  <si>
+    <t>industry_categories</t>
+  </si>
+  <si>
+    <t>industry_description_sentence</t>
+  </si>
+  <si>
+    <t>acquisitions_number</t>
+  </si>
+  <si>
+    <t>investments_number</t>
+  </si>
+  <si>
+    <t>industry_competitors_number</t>
+  </si>
+  <si>
+    <t>funding_rounds_number</t>
+  </si>
+  <si>
+    <t>funding_frequency_excl</t>
+  </si>
+  <si>
+    <t>funding_frequency_incl</t>
+  </si>
+  <si>
+    <t>acquisitions_first_date</t>
+  </si>
+  <si>
+    <t>acquisitions_last_date</t>
+  </si>
+  <si>
+    <t>funding_first_date</t>
+  </si>
+  <si>
+    <t>funding_founding_to_first_date</t>
+  </si>
+  <si>
+    <t>funding_last_date</t>
+  </si>
+  <si>
+    <t>workers_employees_current_number</t>
+  </si>
+  <si>
+    <t>workers_total_number</t>
+  </si>
+  <si>
+    <t>workers_employees_former_number</t>
+  </si>
+  <si>
+    <t>workers_founders_number</t>
+  </si>
+  <si>
+    <t>workers_founders_degrees_number</t>
+  </si>
+  <si>
+    <t>economy_closed_date</t>
+  </si>
+  <si>
+    <t>economy_founded_date</t>
+  </si>
+  <si>
+    <t>investments_first_date</t>
+  </si>
+  <si>
+    <t>investments_last_date</t>
+  </si>
+  <si>
+    <t>milestones_first_date</t>
+  </si>
+  <si>
+    <t>milestones_last_date</t>
+  </si>
+  <si>
+    <t>milestones_number</t>
+  </si>
+  <si>
+    <t>performance_first_round_to_last_round_date</t>
+  </si>
+  <si>
+    <t>performance_founding_to_closing_date</t>
+  </si>
+  <si>
+    <t>performance_founding_to_last_round_date</t>
+  </si>
+  <si>
+    <t>performance_founding_to_timestamp_date</t>
+  </si>
+  <si>
+    <t>performance_acquired_bool</t>
+  </si>
+  <si>
+    <t>performance_operating_bool</t>
+  </si>
+  <si>
+    <t>performance_public_bool</t>
+  </si>
+  <si>
+    <t>social_twitter_bool</t>
+  </si>
+  <si>
+    <t>social_website_bool</t>
+  </si>
+  <si>
+    <t>social_twitter_followers_number</t>
+  </si>
+  <si>
+    <t>social_twitter_following_number</t>
+  </si>
+  <si>
+    <t>social_twitter_tweets_number</t>
+  </si>
+  <si>
+    <t>industry_description_long_text</t>
+  </si>
+  <si>
+    <t>industry_description_short_text</t>
+  </si>
+  <si>
+    <t>workers_founders_mba_number</t>
+  </si>
+  <si>
+    <t>workers_founders_phd_number</t>
+  </si>
+  <si>
+    <t>workers_founders_prev_companies_number</t>
+  </si>
+  <si>
+    <t>social_facebook_bool</t>
+  </si>
+  <si>
+    <t>social_facebook_likes_number</t>
+  </si>
+  <si>
+    <t>funding_investors_number</t>
+  </si>
+  <si>
+    <t>funding_average_value_over_time_excl</t>
+  </si>
+  <si>
+    <t>funding_average_value_over_time_incl</t>
+  </si>
+  <si>
+    <t>funding_average_value_per_round</t>
+  </si>
+  <si>
+    <t>funding_average_investors_per_round</t>
+  </si>
+  <si>
+    <t>workers_directors_number</t>
+  </si>
+  <si>
+    <t>workers_founders_universities</t>
+  </si>
+  <si>
+    <t>economy_sp_close_timestamp_value</t>
+  </si>
+  <si>
+    <t>media_mentions_any_number</t>
+  </si>
+  <si>
+    <t>media_mentions_techcrunch_number</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>keys_companies_timestamp</t>
+  </si>
+  <si>
+    <t>keys_acquisitions_timestamp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -336,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -344,6 +1040,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,17 +1360,4870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>288</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G56">
+    <sortState ref="A2:G68">
+      <sortCondition ref="A1:A56"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2391.25</v>
+      </c>
+      <c r="B2">
+        <v>4781.5</v>
+      </c>
+      <c r="C2">
+        <v>7171.75</v>
+      </c>
+      <c r="D2">
+        <v>9562</v>
+      </c>
+      <c r="F2">
+        <v>9562</v>
+      </c>
+      <c r="G2">
+        <v>4781.5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2760.4559709999999</v>
+      </c>
+      <c r="L2">
+        <v>8309.0861430000004</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>-1.2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2692.25</v>
+      </c>
+      <c r="B3">
+        <v>5197.5</v>
+      </c>
+      <c r="C3">
+        <v>7858.75</v>
+      </c>
+      <c r="D3">
+        <v>9562</v>
+      </c>
+      <c r="F3">
+        <v>10529</v>
+      </c>
+      <c r="G3">
+        <v>5266.7958589999998</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3009.7383799999998</v>
+      </c>
+      <c r="L3">
+        <v>6899.9909859999998</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.7493839999999999E-2</v>
+      </c>
+      <c r="P3">
+        <v>-1.1786231060000001</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11600000</v>
+      </c>
+      <c r="B4">
+        <v>52000000</v>
+      </c>
+      <c r="C4">
+        <v>253000000</v>
+      </c>
+      <c r="D4">
+        <v>2601</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2600000000000</v>
+      </c>
+      <c r="G4">
+        <v>1428671819</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>51001572707</v>
+      </c>
+      <c r="L4">
+        <v>8326.412585</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6961</v>
+      </c>
+      <c r="O4">
+        <v>50.911687219999997</v>
+      </c>
+      <c r="P4">
+        <v>2594.96101</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>9562</v>
+      </c>
+      <c r="E5">
+        <v>159</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5">
+        <v>4872</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>9561</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6">
+        <v>9411</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1906</v>
+      </c>
+      <c r="E7">
+        <v>1240</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>7656</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>9558</v>
+      </c>
+      <c r="E8">
+        <v>9407</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>8566</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9">
+        <v>8341</v>
+      </c>
+      <c r="N9">
+        <v>996</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>118</v>
+      </c>
+      <c r="R9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>8590</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10">
+        <v>8101</v>
+      </c>
+      <c r="N10">
+        <v>972</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>27403.25</v>
+      </c>
+      <c r="B11">
+        <v>54805.5</v>
+      </c>
+      <c r="C11">
+        <v>82207.75</v>
+      </c>
+      <c r="D11">
+        <v>109610</v>
+      </c>
+      <c r="F11">
+        <v>109610</v>
+      </c>
+      <c r="G11">
+        <v>54805.5</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>31641.825840000001</v>
+      </c>
+      <c r="L11">
+        <v>97195.140199999994</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>-1.2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>109610</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12">
+        <v>68451</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>98395</v>
+      </c>
+      <c r="E13">
+        <v>23425</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13">
+        <v>7149</v>
+      </c>
+      <c r="N13">
+        <v>11215</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" t="s">
+        <v>112</v>
+      </c>
+      <c r="S13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>81298</v>
+      </c>
+      <c r="E14">
+        <v>6001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14">
+        <v>20050</v>
+      </c>
+      <c r="N14">
+        <v>28312</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>109555</v>
+      </c>
+      <c r="E15">
+        <v>2990</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15">
+        <v>21067</v>
+      </c>
+      <c r="N15">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>129</v>
+      </c>
+      <c r="R15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14343.75</v>
+      </c>
+      <c r="B16">
+        <v>28885.5</v>
+      </c>
+      <c r="C16">
+        <v>43561.25</v>
+      </c>
+      <c r="D16">
+        <v>52928</v>
+      </c>
+      <c r="F16">
+        <v>57952</v>
+      </c>
+      <c r="G16">
+        <v>28962.894540000001</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>16821.871800000001</v>
+      </c>
+      <c r="L16">
+        <v>51475.81308</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.5147575E-2</v>
+      </c>
+      <c r="P16">
+        <v>-1.2098870209999999</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14343.75</v>
+      </c>
+      <c r="B17">
+        <v>28885.5</v>
+      </c>
+      <c r="C17">
+        <v>43561.25</v>
+      </c>
+      <c r="D17">
+        <v>52928</v>
+      </c>
+      <c r="F17">
+        <v>57952</v>
+      </c>
+      <c r="G17">
+        <v>28962.894540000001</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>16821.871800000001</v>
+      </c>
+      <c r="L17">
+        <v>51475.81308</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1.5147575E-2</v>
+      </c>
+      <c r="P17">
+        <v>-1.2098870209999999</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>504837.5</v>
+      </c>
+      <c r="B18">
+        <v>2250012.5</v>
+      </c>
+      <c r="C18">
+        <v>8000000</v>
+      </c>
+      <c r="D18">
+        <v>46928</v>
+      </c>
+      <c r="F18">
+        <v>3835050000</v>
+      </c>
+      <c r="G18">
+        <v>8962043.3959999997</v>
+      </c>
+      <c r="H18">
+        <v>291</v>
+      </c>
+      <c r="I18">
+        <v>44681137.560000002</v>
+      </c>
+      <c r="L18">
+        <v>145004.51079999999</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>6000</v>
+      </c>
+      <c r="O18">
+        <v>47.540352040000002</v>
+      </c>
+      <c r="P18">
+        <v>3365.3687150000001</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>500000</v>
+      </c>
+      <c r="B19">
+        <v>2100000</v>
+      </c>
+      <c r="C19">
+        <v>8000000</v>
+      </c>
+      <c r="D19">
+        <v>47290</v>
+      </c>
+      <c r="F19">
+        <v>3835050000</v>
+      </c>
+      <c r="G19">
+        <v>9016584.9600000009</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <v>47303084.340000004</v>
+      </c>
+      <c r="L19">
+        <v>144039.6079</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>5638</v>
+      </c>
+      <c r="O19">
+        <v>45.742608019999999</v>
+      </c>
+      <c r="P19">
+        <v>3011.4230550000002</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R19" t="s">
+        <v>108</v>
+      </c>
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>12500</v>
+      </c>
+      <c r="B20">
+        <v>4350000</v>
+      </c>
+      <c r="C20">
+        <v>37425000</v>
+      </c>
+      <c r="D20">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>15000000000</v>
+      </c>
+      <c r="G20">
+        <v>415172857.10000002</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2308924393</v>
+      </c>
+      <c r="L20">
+        <v>95.923446420000005</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1.48E-21</v>
+      </c>
+      <c r="N20">
+        <v>52886</v>
+      </c>
+      <c r="O20">
+        <v>6.4499211880000002</v>
+      </c>
+      <c r="P20">
+        <v>41.722992339999998</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>12500</v>
+      </c>
+      <c r="B21">
+        <v>4350000</v>
+      </c>
+      <c r="C21">
+        <v>37425000</v>
+      </c>
+      <c r="D21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>15000000000</v>
+      </c>
+      <c r="G21">
+        <v>415172857.10000002</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2308924393</v>
+      </c>
+      <c r="L21">
+        <v>95.923446420000005</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1.48E-21</v>
+      </c>
+      <c r="N21">
+        <v>52886</v>
+      </c>
+      <c r="O21">
+        <v>6.4499211880000002</v>
+      </c>
+      <c r="P21">
+        <v>41.722992339999998</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>133</v>
+      </c>
+      <c r="R21" t="s">
+        <v>108</v>
+      </c>
+      <c r="S21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>500000</v>
+      </c>
+      <c r="B22">
+        <v>2000000</v>
+      </c>
+      <c r="C22">
+        <v>5000000</v>
+      </c>
+      <c r="D22">
+        <v>1209</v>
+      </c>
+      <c r="F22">
+        <v>24324234322</v>
+      </c>
+      <c r="G22">
+        <v>79867402.239999995</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>848264461.89999998</v>
+      </c>
+      <c r="L22">
+        <v>2840.2933269999999</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>51719</v>
+      </c>
+      <c r="O22">
+        <v>22.058182739999999</v>
+      </c>
+      <c r="P22">
+        <v>579.54016490000004</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" t="s">
+        <v>108</v>
+      </c>
+      <c r="S22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>500000</v>
+      </c>
+      <c r="B23">
+        <v>1875000</v>
+      </c>
+      <c r="C23">
+        <v>5000000</v>
+      </c>
+      <c r="D23">
+        <v>1294</v>
+      </c>
+      <c r="F23">
+        <v>24324234322</v>
+      </c>
+      <c r="G23">
+        <v>76172095.719999999</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>820407141.70000005</v>
+      </c>
+      <c r="L23">
+        <v>3076.5569660000001</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>51634</v>
+      </c>
+      <c r="O23">
+        <v>22.790877470000002</v>
+      </c>
+      <c r="P23">
+        <v>619.22607909999999</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" t="s">
+        <v>108</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>52928</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>1.52856711</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2.0601916330000001</v>
+      </c>
+      <c r="L24">
+        <v>35491.03355</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.9531285029999998</v>
+      </c>
+      <c r="P24">
+        <v>17.084814179999999</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>136</v>
+      </c>
+      <c r="R24" t="s">
+        <v>108</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>52928</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.60457602799999999</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.48894618400000001</v>
+      </c>
+      <c r="L25">
+        <v>1485.3616139999999</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>-0.42777705599999999</v>
+      </c>
+      <c r="P25">
+        <v>-1.817075454</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>137</v>
+      </c>
+      <c r="R25" t="s">
+        <v>108</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>52928</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.60453824099999998</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.488954265</v>
+      </c>
+      <c r="L26">
+        <v>1484.325032</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>-0.427615417</v>
+      </c>
+      <c r="P26">
+        <v>-1.8172137239999999</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>138</v>
+      </c>
+      <c r="R26" t="s">
+        <v>108</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>52928</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27">
+        <v>31939</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>123</v>
+      </c>
+      <c r="R27" t="s">
+        <v>112</v>
+      </c>
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>52928</v>
+      </c>
+      <c r="E28">
+        <v>15342</v>
+      </c>
+      <c r="J28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" t="s">
+        <v>112</v>
+      </c>
+      <c r="S28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>52928</v>
+      </c>
+      <c r="E29">
+        <v>12227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" t="s">
+        <v>112</v>
+      </c>
+      <c r="S29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>49862</v>
+      </c>
+      <c r="E30">
+        <v>45704</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>3066</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>141</v>
+      </c>
+      <c r="R30" t="s">
+        <v>112</v>
+      </c>
+      <c r="S30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>26883</v>
+      </c>
+      <c r="E31">
+        <v>26883</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>26045</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>142</v>
+      </c>
+      <c r="R31" t="s">
+        <v>112</v>
+      </c>
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>30448</v>
+      </c>
+      <c r="E32">
+        <v>30198</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="N32">
+        <v>22480</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>143</v>
+      </c>
+      <c r="R32" t="s">
+        <v>112</v>
+      </c>
+      <c r="S32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>40382</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33">
+        <v>38915</v>
+      </c>
+      <c r="N33">
+        <v>12546</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R33" t="s">
+        <v>112</v>
+      </c>
+      <c r="S33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>43439</v>
+      </c>
+      <c r="E34">
+        <v>9214</v>
+      </c>
+      <c r="J34" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34">
+        <v>27206</v>
+      </c>
+      <c r="N34">
+        <v>9489</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>120</v>
+      </c>
+      <c r="R34" t="s">
+        <v>112</v>
+      </c>
+      <c r="S34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>48291</v>
+      </c>
+      <c r="E35">
+        <v>8036</v>
+      </c>
+      <c r="J35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35">
+        <v>5520</v>
+      </c>
+      <c r="N35">
+        <v>4637</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>147</v>
+      </c>
+      <c r="R35" t="s">
+        <v>112</v>
+      </c>
+      <c r="S35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>427.75</v>
+      </c>
+      <c r="B36">
+        <v>855.5</v>
+      </c>
+      <c r="C36">
+        <v>1290.25</v>
+      </c>
+      <c r="D36">
+        <v>1564</v>
+      </c>
+      <c r="F36">
+        <v>1701</v>
+      </c>
+      <c r="G36">
+        <v>854.28260869999997</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>493.53629539999997</v>
+      </c>
+      <c r="L36">
+        <v>1275.32698</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1.16E-277</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>-7.4510330000000001E-3</v>
+      </c>
+      <c r="P36">
+        <v>-1.204851186</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" t="s">
+        <v>108</v>
+      </c>
+      <c r="S36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>427.75</v>
+      </c>
+      <c r="B37">
+        <v>855.5</v>
+      </c>
+      <c r="C37">
+        <v>1290.25</v>
+      </c>
+      <c r="D37">
+        <v>1564</v>
+      </c>
+      <c r="F37">
+        <v>1701</v>
+      </c>
+      <c r="G37">
+        <v>854.28260869999997</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>493.53629539999997</v>
+      </c>
+      <c r="L37">
+        <v>1275.32698</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1.16E-277</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>-7.4510330000000001E-3</v>
+      </c>
+      <c r="P37">
+        <v>-1.204851186</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>149</v>
+      </c>
+      <c r="R37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>30000000</v>
+      </c>
+      <c r="B38">
+        <v>116000000</v>
+      </c>
+      <c r="C38">
+        <v>308000000</v>
+      </c>
+      <c r="D38">
+        <v>1393</v>
+      </c>
+      <c r="F38">
+        <v>89000000000</v>
+      </c>
+      <c r="G38">
+        <v>448520292.30000001</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2611509997</v>
+      </c>
+      <c r="L38">
+        <v>3629.5899960000002</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>171</v>
+      </c>
+      <c r="O38">
+        <v>28.544355419999999</v>
+      </c>
+      <c r="P38">
+        <v>952.5933612</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>131</v>
+      </c>
+      <c r="R38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>1564</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39">
+        <v>1026</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>123</v>
+      </c>
+      <c r="R39" t="s">
+        <v>112</v>
+      </c>
+      <c r="S39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>1564</v>
+      </c>
+      <c r="E40">
+        <v>61</v>
+      </c>
+      <c r="J40" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40">
+        <v>1313</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>34</v>
+      </c>
+      <c r="R40" t="s">
+        <v>112</v>
+      </c>
+      <c r="S40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>1564</v>
+      </c>
+      <c r="E41">
+        <v>1296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>141</v>
+      </c>
+      <c r="R41" t="s">
+        <v>112</v>
+      </c>
+      <c r="S41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>1272</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>152</v>
+      </c>
+      <c r="K42">
+        <v>1205</v>
+      </c>
+      <c r="N42">
+        <v>292</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>118</v>
+      </c>
+      <c r="R42" t="s">
+        <v>112</v>
+      </c>
+      <c r="S42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>1218</v>
+      </c>
+      <c r="E43">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43">
+        <v>1102</v>
+      </c>
+      <c r="N43">
+        <v>346</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>120</v>
+      </c>
+      <c r="R43" t="s">
+        <v>112</v>
+      </c>
+      <c r="S43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>20226.25</v>
+      </c>
+      <c r="B44">
+        <v>40451.5</v>
+      </c>
+      <c r="C44">
+        <v>60676.75</v>
+      </c>
+      <c r="D44">
+        <v>80902</v>
+      </c>
+      <c r="F44">
+        <v>80902</v>
+      </c>
+      <c r="G44">
+        <v>40451.5</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>23354.540079999999</v>
+      </c>
+      <c r="L44">
+        <v>71688.825039999996</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>8.4899999999999997E-17</v>
+      </c>
+      <c r="P44">
+        <v>-1.2</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>107</v>
+      </c>
+      <c r="R44" t="s">
+        <v>108</v>
+      </c>
+      <c r="S44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11747.25</v>
+      </c>
+      <c r="B45">
+        <v>22594.5</v>
+      </c>
+      <c r="C45">
+        <v>34794</v>
+      </c>
+      <c r="D45">
+        <v>80902</v>
+      </c>
+      <c r="F45">
+        <v>57948</v>
+      </c>
+      <c r="G45">
+        <v>24020.171259999999</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>15163.03407</v>
+      </c>
+      <c r="L45">
+        <v>8490.4161430000004</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0.35121975599999999</v>
+      </c>
+      <c r="P45">
+        <v>-0.80127625300000005</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>130</v>
+      </c>
+      <c r="R45" t="s">
+        <v>108</v>
+      </c>
+      <c r="S45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>80902</v>
+      </c>
+      <c r="E46">
+        <v>58</v>
+      </c>
+      <c r="J46" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46">
+        <v>21607</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>154</v>
+      </c>
+      <c r="R46" t="s">
+        <v>112</v>
+      </c>
+      <c r="S46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>80902</v>
+      </c>
+      <c r="E47">
+        <v>529</v>
+      </c>
+      <c r="J47" t="s">
+        <v>155</v>
+      </c>
+      <c r="K47">
+        <v>17152</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>156</v>
+      </c>
+      <c r="R47" t="s">
+        <v>112</v>
+      </c>
+      <c r="S47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>315.5</v>
+      </c>
+      <c r="B48">
+        <v>630</v>
+      </c>
+      <c r="C48">
+        <v>944.5</v>
+      </c>
+      <c r="D48">
+        <v>1259</v>
+      </c>
+      <c r="F48">
+        <v>1259</v>
+      </c>
+      <c r="G48">
+        <v>630</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>363.58630340000002</v>
+      </c>
+      <c r="L48">
+        <v>959.40682960000004</v>
+      </c>
+      <c r="M48" s="4">
+        <v>4.65E-209</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>-1.2</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>107</v>
+      </c>
+      <c r="R48" t="s">
+        <v>108</v>
+      </c>
+      <c r="S48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>356.5</v>
+      </c>
+      <c r="B49">
+        <v>688</v>
+      </c>
+      <c r="C49">
+        <v>1025.5</v>
+      </c>
+      <c r="D49">
+        <v>1259</v>
+      </c>
+      <c r="F49">
+        <v>1376</v>
+      </c>
+      <c r="G49">
+        <v>690.20492449999995</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>393.12417599999998</v>
+      </c>
+      <c r="L49">
+        <v>734.38022899999999</v>
+      </c>
+      <c r="M49" s="4">
+        <v>3.4000000000000002E-160</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>5.9784850000000004E-3</v>
+      </c>
+      <c r="P49">
+        <v>-1.165234664</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>158</v>
+      </c>
+      <c r="R49" t="s">
+        <v>108</v>
+      </c>
+      <c r="S49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>97375000</v>
+      </c>
+      <c r="B50">
+        <v>317500000</v>
+      </c>
+      <c r="C50">
+        <v>1025937500</v>
+      </c>
+      <c r="D50">
+        <v>108</v>
+      </c>
+      <c r="F50" s="4">
+        <v>108960000000</v>
+      </c>
+      <c r="G50">
+        <v>4205759573</v>
+      </c>
+      <c r="H50">
+        <v>38600</v>
+      </c>
+      <c r="I50">
+        <v>17271857316</v>
+      </c>
+      <c r="L50">
+        <v>154.8415387</v>
+      </c>
+      <c r="M50" s="4">
+        <v>2.3799999999999999E-34</v>
+      </c>
+      <c r="N50">
+        <v>1151</v>
+      </c>
+      <c r="O50">
+        <v>5.5849496040000002</v>
+      </c>
+      <c r="P50">
+        <v>30.667494250000001</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>159</v>
+      </c>
+      <c r="R50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>64500000</v>
+      </c>
+      <c r="B51">
+        <v>105000000</v>
+      </c>
+      <c r="C51">
+        <v>226500000</v>
+      </c>
+      <c r="D51">
+        <v>139</v>
+      </c>
+      <c r="F51">
+        <v>24400000000</v>
+      </c>
+      <c r="G51">
+        <v>533304288.30000001</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>2580340553</v>
+      </c>
+      <c r="L51">
+        <v>246.07568140000001</v>
+      </c>
+      <c r="M51" s="4">
+        <v>3.6800000000000002E-54</v>
+      </c>
+      <c r="N51">
+        <v>1120</v>
+      </c>
+      <c r="O51">
+        <v>8.2588354299999995</v>
+      </c>
+      <c r="P51">
+        <v>69.728380009999995</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>131</v>
+      </c>
+      <c r="R51" t="s">
+        <v>108</v>
+      </c>
+      <c r="S51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>1254</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52">
+        <v>1253</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>123</v>
+      </c>
+      <c r="R52" t="s">
+        <v>112</v>
+      </c>
+      <c r="S52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>1257</v>
+      </c>
+      <c r="E53">
+        <v>1247</v>
+      </c>
+      <c r="J53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>161</v>
+      </c>
+      <c r="R53" t="s">
+        <v>112</v>
+      </c>
+      <c r="S53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>699</v>
+      </c>
+      <c r="E54">
+        <v>691</v>
+      </c>
+      <c r="J54" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>560</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>141</v>
+      </c>
+      <c r="R54" t="s">
+        <v>112</v>
+      </c>
+      <c r="S54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>1259</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>162</v>
+      </c>
+      <c r="K55">
+        <v>1247</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>163</v>
+      </c>
+      <c r="R55" t="s">
+        <v>112</v>
+      </c>
+      <c r="S55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>191</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>164</v>
+      </c>
+      <c r="K56">
+        <v>191</v>
+      </c>
+      <c r="N56">
+        <v>1068</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>118</v>
+      </c>
+      <c r="R56" t="s">
+        <v>112</v>
+      </c>
+      <c r="S56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>180</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>165</v>
+      </c>
+      <c r="K57">
+        <v>177</v>
+      </c>
+      <c r="N57">
+        <v>1079</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>120</v>
+      </c>
+      <c r="R57" t="s">
+        <v>112</v>
+      </c>
+      <c r="S57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9864.75</v>
+      </c>
+      <c r="B58">
+        <v>19728.5</v>
+      </c>
+      <c r="C58">
+        <v>29592.25</v>
+      </c>
+      <c r="D58">
+        <v>39456</v>
+      </c>
+      <c r="F58">
+        <v>39456</v>
+      </c>
+      <c r="G58">
+        <v>19728.5</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>11390.11045</v>
+      </c>
+      <c r="L58">
+        <v>34865.52996</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>-1.2</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>107</v>
+      </c>
+      <c r="R58" t="s">
+        <v>108</v>
+      </c>
+      <c r="S58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>39456</v>
+      </c>
+      <c r="E59">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s">
+        <v>167</v>
+      </c>
+      <c r="K59">
+        <v>17159</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>123</v>
+      </c>
+      <c r="R59" t="s">
+        <v>112</v>
+      </c>
+      <c r="S59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>39456</v>
+      </c>
+      <c r="E60">
+        <v>39456</v>
+      </c>
+      <c r="J60" t="s">
+        <v>168</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>169</v>
+      </c>
+      <c r="R60" t="s">
+        <v>112</v>
+      </c>
+      <c r="S60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>39456</v>
+      </c>
+      <c r="E61">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s">
+        <v>170</v>
+      </c>
+      <c r="K61">
+        <v>38537</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>171</v>
+      </c>
+      <c r="R61" t="s">
+        <v>112</v>
+      </c>
+      <c r="S61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>31401</v>
+      </c>
+      <c r="E62">
+        <v>53</v>
+      </c>
+      <c r="J62" t="s">
+        <v>172</v>
+      </c>
+      <c r="K62">
+        <v>29006</v>
+      </c>
+      <c r="N62">
+        <v>8055</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>118</v>
+      </c>
+      <c r="R62" t="s">
+        <v>112</v>
+      </c>
+      <c r="S62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>29268</v>
+      </c>
+      <c r="E63">
+        <v>203</v>
+      </c>
+      <c r="J63" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63">
+        <v>24949</v>
+      </c>
+      <c r="N63">
+        <v>10188</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>120</v>
+      </c>
+      <c r="R63" t="s">
+        <v>112</v>
+      </c>
+      <c r="S63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>45249.5</v>
+      </c>
+      <c r="B64">
+        <v>143072</v>
+      </c>
+      <c r="C64">
+        <v>213868.5</v>
+      </c>
+      <c r="D64">
+        <v>462651</v>
+      </c>
+      <c r="F64">
+        <v>286215</v>
+      </c>
+      <c r="G64">
+        <v>132915.76180000001</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>88768.946819999997</v>
+      </c>
+      <c r="L64">
+        <v>65.280868069999997</v>
+      </c>
+      <c r="M64" s="4">
+        <v>6.6699999999999999E-15</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>2.9102353000000001E-2</v>
+      </c>
+      <c r="P64">
+        <v>-1.443522862</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>174</v>
+      </c>
+      <c r="R64" t="s">
+        <v>108</v>
+      </c>
+      <c r="S64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>166</v>
+      </c>
+      <c r="B65">
+        <v>240</v>
+      </c>
+      <c r="C65">
+        <v>428</v>
+      </c>
+      <c r="D65">
+        <v>208850</v>
+      </c>
+      <c r="F65">
+        <v>18200</v>
+      </c>
+      <c r="G65">
+        <v>419.03265499999998</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>563.79453460000002</v>
+      </c>
+      <c r="L65">
+        <v>222575.86470000001</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>253801</v>
+      </c>
+      <c r="O65">
+        <v>5.2791560390000001</v>
+      </c>
+      <c r="P65">
+        <v>52.206126079999997</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>176</v>
+      </c>
+      <c r="R65" t="s">
+        <v>108</v>
+      </c>
+      <c r="S65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>87</v>
+      </c>
+      <c r="B66">
+        <v>153</v>
+      </c>
+      <c r="C66">
+        <v>288</v>
+      </c>
+      <c r="D66">
+        <v>208850</v>
+      </c>
+      <c r="F66">
+        <v>9600</v>
+      </c>
+      <c r="G66">
+        <v>289.06253770000001</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>453.90573799999999</v>
+      </c>
+      <c r="L66">
+        <v>215685.88860000001</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>253801</v>
+      </c>
+      <c r="O66">
+        <v>5.2375637040000003</v>
+      </c>
+      <c r="P66">
+        <v>38.261996359999998</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>177</v>
+      </c>
+      <c r="R66" t="s">
+        <v>108</v>
+      </c>
+      <c r="S66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>16986</v>
+      </c>
+      <c r="F67">
+        <v>529</v>
+      </c>
+      <c r="G67">
+        <v>4.7376074409999998</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>18.40870434</v>
+      </c>
+      <c r="L67">
+        <v>32347.144110000001</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>445665</v>
+      </c>
+      <c r="O67">
+        <v>14.796940279999999</v>
+      </c>
+      <c r="P67">
+        <v>305.19188509999998</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>178</v>
+      </c>
+      <c r="R67" t="s">
+        <v>108</v>
+      </c>
+      <c r="S67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>16986</v>
+      </c>
+      <c r="F68">
+        <v>459</v>
+      </c>
+      <c r="G68">
+        <v>3.7623336869999999</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>12.781973109999999</v>
+      </c>
+      <c r="L68">
+        <v>33279.653899999998</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>445665</v>
+      </c>
+      <c r="O68">
+        <v>15.614653499999999</v>
+      </c>
+      <c r="P68">
+        <v>371.44746370000001</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>179</v>
+      </c>
+      <c r="R68" t="s">
+        <v>108</v>
+      </c>
+      <c r="S68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>31707</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <v>1.6597596750000001</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1.2016658179999999</v>
+      </c>
+      <c r="L69">
+        <v>19446.25042</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>430944</v>
+      </c>
+      <c r="O69">
+        <v>2.8255335050000001</v>
+      </c>
+      <c r="P69">
+        <v>11.58928212</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>43</v>
+      </c>
+      <c r="R69" t="s">
+        <v>108</v>
+      </c>
+      <c r="S69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>500000</v>
+      </c>
+      <c r="B70">
+        <v>2564500</v>
+      </c>
+      <c r="C70">
+        <v>11000000</v>
+      </c>
+      <c r="D70">
+        <v>27874</v>
+      </c>
+      <c r="F70">
+        <v>5700000000</v>
+      </c>
+      <c r="G70">
+        <v>14816520.42</v>
+      </c>
+      <c r="H70">
+        <v>291</v>
+      </c>
+      <c r="I70">
+        <v>67759366.560000002</v>
+      </c>
+      <c r="L70">
+        <v>79465.414019999997</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>434777</v>
+      </c>
+      <c r="O70">
+        <v>38.02511561</v>
+      </c>
+      <c r="P70">
+        <v>2452.2536810000001</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" t="s">
+        <v>108</v>
+      </c>
+      <c r="S70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>100358</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <v>1.2225532589999999</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0.56559763399999996</v>
+      </c>
+      <c r="L71">
+        <v>69279.707559999995</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>362293</v>
+      </c>
+      <c r="O71">
+        <v>3.2408229259999999</v>
+      </c>
+      <c r="P71">
+        <v>13.887730980000001</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>166</v>
+      </c>
+      <c r="R71" t="s">
+        <v>108</v>
+      </c>
+      <c r="S71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>337847</v>
+      </c>
+      <c r="F72">
+        <v>1189</v>
+      </c>
+      <c r="G72">
+        <v>2.4571388820000002</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>6.2567151279999997</v>
+      </c>
+      <c r="L72">
+        <v>1232191.314</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>124804</v>
+      </c>
+      <c r="O72">
+        <v>76.640927199999993</v>
+      </c>
+      <c r="P72">
+        <v>10672.61555</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>180</v>
+      </c>
+      <c r="R72" t="s">
+        <v>108</v>
+      </c>
+      <c r="S72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>462651</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>181</v>
+      </c>
+      <c r="K73">
+        <v>462651</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>107</v>
+      </c>
+      <c r="R73" t="s">
+        <v>112</v>
+      </c>
+      <c r="S73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>462651</v>
+      </c>
+      <c r="E74">
+        <v>226708</v>
+      </c>
+      <c r="J74" t="s">
+        <v>182</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>183</v>
+      </c>
+      <c r="R74" t="s">
+        <v>112</v>
+      </c>
+      <c r="S74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>27715</v>
+      </c>
+      <c r="E75">
+        <v>152</v>
+      </c>
+      <c r="J75" t="s">
+        <v>184</v>
+      </c>
+      <c r="K75">
+        <v>11972</v>
+      </c>
+      <c r="N75">
+        <v>434936</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>185</v>
+      </c>
+      <c r="R75" t="s">
+        <v>112</v>
+      </c>
+      <c r="S75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>462650</v>
+      </c>
+      <c r="E76">
+        <v>40</v>
+      </c>
+      <c r="J76" t="s">
+        <v>186</v>
+      </c>
+      <c r="K76">
+        <v>445205</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>34</v>
+      </c>
+      <c r="R76" t="s">
+        <v>112</v>
+      </c>
+      <c r="S76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>462621</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s">
+        <v>187</v>
+      </c>
+      <c r="K77">
+        <v>439327</v>
+      </c>
+      <c r="N77">
+        <v>30</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>188</v>
+      </c>
+      <c r="R77" t="s">
+        <v>112</v>
+      </c>
+      <c r="S77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>462651</v>
+      </c>
+      <c r="E78">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s">
+        <v>189</v>
+      </c>
+      <c r="K78">
+        <v>462435</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" t="s">
+        <v>112</v>
+      </c>
+      <c r="S78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>123186</v>
+      </c>
+      <c r="E79">
+        <v>17922</v>
+      </c>
+      <c r="J79" t="s">
+        <v>190</v>
+      </c>
+      <c r="K79">
+        <v>42</v>
+      </c>
+      <c r="N79">
+        <v>339465</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>191</v>
+      </c>
+      <c r="R79" t="s">
+        <v>112</v>
+      </c>
+      <c r="S79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>462651</v>
+      </c>
+      <c r="E80">
+        <v>443663</v>
+      </c>
+      <c r="J80" t="s">
+        <v>85</v>
+      </c>
+      <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>38</v>
+      </c>
+      <c r="R80" t="s">
+        <v>112</v>
+      </c>
+      <c r="S80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>174942</v>
+      </c>
+      <c r="E81">
+        <v>818</v>
+      </c>
+      <c r="J81" t="s">
+        <v>192</v>
+      </c>
+      <c r="K81">
+        <v>155458</v>
+      </c>
+      <c r="N81">
+        <v>287709</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>193</v>
+      </c>
+      <c r="R81" t="s">
+        <v>112</v>
+      </c>
+      <c r="S81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>174942</v>
+      </c>
+      <c r="E82">
+        <v>31</v>
+      </c>
+      <c r="J82" t="s">
+        <v>194</v>
+      </c>
+      <c r="K82">
+        <v>163622</v>
+      </c>
+      <c r="N82">
+        <v>287709</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>35</v>
+      </c>
+      <c r="R82" t="s">
+        <v>112</v>
+      </c>
+      <c r="S82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>126089</v>
+      </c>
+      <c r="E83">
+        <v>48</v>
+      </c>
+      <c r="J83" t="s">
+        <v>195</v>
+      </c>
+      <c r="K83">
+        <v>119504</v>
+      </c>
+      <c r="N83">
+        <v>336562</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>196</v>
+      </c>
+      <c r="R83" t="s">
+        <v>112</v>
+      </c>
+      <c r="S83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>208850</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>197</v>
+      </c>
+      <c r="K84">
+        <v>208850</v>
+      </c>
+      <c r="N84">
+        <v>253801</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>198</v>
+      </c>
+      <c r="R84" t="s">
+        <v>112</v>
+      </c>
+      <c r="S84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>7617</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="J85" t="s">
+        <v>199</v>
+      </c>
+      <c r="K85">
+        <v>7614</v>
+      </c>
+      <c r="N85">
+        <v>455034</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>200</v>
+      </c>
+      <c r="R85" t="s">
+        <v>112</v>
+      </c>
+      <c r="S85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>95005</v>
+      </c>
+      <c r="E86">
+        <v>360</v>
+      </c>
+      <c r="J86" t="s">
+        <v>201</v>
+      </c>
+      <c r="K86">
+        <v>85369</v>
+      </c>
+      <c r="N86">
+        <v>367646</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>171</v>
+      </c>
+      <c r="R86" t="s">
+        <v>112</v>
+      </c>
+      <c r="S86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>235235</v>
+      </c>
+      <c r="E87">
+        <v>54</v>
+      </c>
+      <c r="J87" t="s">
+        <v>202</v>
+      </c>
+      <c r="K87">
+        <v>234264</v>
+      </c>
+      <c r="N87">
+        <v>227416</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>203</v>
+      </c>
+      <c r="R87" t="s">
+        <v>112</v>
+      </c>
+      <c r="S87" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>106496</v>
+      </c>
+      <c r="E88">
+        <v>218</v>
+      </c>
+      <c r="J88" t="s">
+        <v>204</v>
+      </c>
+      <c r="K88">
+        <v>101997</v>
+      </c>
+      <c r="N88">
+        <v>356155</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>205</v>
+      </c>
+      <c r="R88" t="s">
+        <v>112</v>
+      </c>
+      <c r="S88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>95043</v>
+      </c>
+      <c r="E89">
+        <v>55584</v>
+      </c>
+      <c r="J89" t="s">
+        <v>56</v>
+      </c>
+      <c r="K89">
+        <v>177</v>
+      </c>
+      <c r="N89">
+        <v>367608</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>39</v>
+      </c>
+      <c r="R89" t="s">
+        <v>112</v>
+      </c>
+      <c r="S89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>54760</v>
+      </c>
+      <c r="E90">
+        <v>17537</v>
+      </c>
+      <c r="J90" t="s">
+        <v>57</v>
+      </c>
+      <c r="K90">
+        <v>51</v>
+      </c>
+      <c r="N90">
+        <v>407891</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s">
+        <v>112</v>
+      </c>
+      <c r="S90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>90684</v>
+      </c>
+      <c r="E91">
+        <v>4395</v>
+      </c>
+      <c r="J91" t="s">
+        <v>206</v>
+      </c>
+      <c r="K91">
+        <v>11077</v>
+      </c>
+      <c r="N91">
+        <v>371967</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>42</v>
+      </c>
+      <c r="R91" t="s">
+        <v>112</v>
+      </c>
+      <c r="S91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>462651</v>
+      </c>
+      <c r="E92">
+        <v>369052</v>
+      </c>
+      <c r="J92" t="s">
+        <v>207</v>
+      </c>
+      <c r="K92">
+        <v>5977</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>41</v>
+      </c>
+      <c r="R92" t="s">
+        <v>112</v>
+      </c>
+      <c r="S92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>339486</v>
+      </c>
+      <c r="E93">
+        <v>15162</v>
+      </c>
+      <c r="J93" t="s">
+        <v>208</v>
+      </c>
+      <c r="K93">
+        <v>80505</v>
+      </c>
+      <c r="N93">
+        <v>123165</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>147</v>
+      </c>
+      <c r="R93" t="s">
+        <v>112</v>
+      </c>
+      <c r="S93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>28180.25</v>
+      </c>
+      <c r="B94">
+        <v>56359.5</v>
+      </c>
+      <c r="C94">
+        <v>84538.75</v>
+      </c>
+      <c r="D94">
+        <v>112718</v>
+      </c>
+      <c r="F94">
+        <v>112718</v>
+      </c>
+      <c r="G94">
+        <v>56359.5</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>32539.028160000002</v>
+      </c>
+      <c r="L94">
+        <v>99956.52261</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>1.5E-17</v>
+      </c>
+      <c r="P94">
+        <v>-1.2</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>107</v>
+      </c>
+      <c r="R94" t="s">
+        <v>108</v>
+      </c>
+      <c r="S94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>32510.25</v>
+      </c>
+      <c r="B95">
+        <v>64901.5</v>
+      </c>
+      <c r="C95">
+        <v>97847.75</v>
+      </c>
+      <c r="D95">
+        <v>112718</v>
+      </c>
+      <c r="F95">
+        <v>127850</v>
+      </c>
+      <c r="G95">
+        <v>64892.879860000001</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>37224.327219999999</v>
+      </c>
+      <c r="L95">
+        <v>149218.86319999999</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>-1.7514473999999999E-2</v>
+      </c>
+      <c r="P95">
+        <v>-1.2382039359999999</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>210</v>
+      </c>
+      <c r="R95" t="s">
+        <v>108</v>
+      </c>
+      <c r="S95" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>35.059001000000002</v>
+      </c>
+      <c r="B96">
+        <v>39.976556000000002</v>
+      </c>
+      <c r="C96">
+        <v>45.329565950000003</v>
+      </c>
+      <c r="D96">
+        <v>32368</v>
+      </c>
+      <c r="F96">
+        <v>69.6502354</v>
+      </c>
+      <c r="G96">
+        <v>37.963040460000002</v>
+      </c>
+      <c r="H96">
+        <v>-43.767553999999997</v>
+      </c>
+      <c r="I96">
+        <v>15.06222925</v>
+      </c>
+      <c r="L96">
+        <v>20359.787789999998</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>80350</v>
+      </c>
+      <c r="O96">
+        <v>-2.9499139620000001</v>
+      </c>
+      <c r="P96">
+        <v>11.301378509999999</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>211</v>
+      </c>
+      <c r="R96" t="s">
+        <v>108</v>
+      </c>
+      <c r="S96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>-117.1680475</v>
+      </c>
+      <c r="B97">
+        <v>-77.080884299999994</v>
+      </c>
+      <c r="C97">
+        <v>-0.13421307499999999</v>
+      </c>
+      <c r="D97">
+        <v>32368</v>
+      </c>
+      <c r="F97">
+        <v>176.916281</v>
+      </c>
+      <c r="G97">
+        <v>-56.864723779999998</v>
+      </c>
+      <c r="H97">
+        <v>-159.48026200000001</v>
+      </c>
+      <c r="I97">
+        <v>66.562549189999999</v>
+      </c>
+      <c r="L97">
+        <v>4895.2713240000003</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>80350</v>
+      </c>
+      <c r="O97">
+        <v>1.128155512</v>
+      </c>
+      <c r="P97">
+        <v>0.63683583799999999</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>212</v>
+      </c>
+      <c r="R97" t="s">
+        <v>108</v>
+      </c>
+      <c r="S97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>112718</v>
+      </c>
+      <c r="E98">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s">
+        <v>213</v>
+      </c>
+      <c r="K98">
+        <v>95043</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>123</v>
+      </c>
+      <c r="R98" t="s">
+        <v>112</v>
+      </c>
+      <c r="S98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>68530</v>
+      </c>
+      <c r="E99">
+        <v>11032</v>
+      </c>
+      <c r="J99" t="s">
+        <v>214</v>
+      </c>
+      <c r="K99">
+        <v>22082</v>
+      </c>
+      <c r="N99">
+        <v>44188</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>171</v>
+      </c>
+      <c r="R99" t="s">
+        <v>112</v>
+      </c>
+      <c r="S99" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>112718</v>
+      </c>
+      <c r="E100">
+        <v>12274</v>
+      </c>
+      <c r="J100" t="s">
+        <v>215</v>
+      </c>
+      <c r="K100">
+        <v>6638</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>41</v>
+      </c>
+      <c r="R100" t="s">
+        <v>112</v>
+      </c>
+      <c r="S100" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>94430</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
+      </c>
+      <c r="J101" t="s">
+        <v>216</v>
+      </c>
+      <c r="K101">
+        <v>81787</v>
+      </c>
+      <c r="N101">
+        <v>18288</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>217</v>
+      </c>
+      <c r="R101" t="s">
+        <v>112</v>
+      </c>
+      <c r="S101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>44520</v>
+      </c>
+      <c r="E102">
+        <v>1060</v>
+      </c>
+      <c r="J102" t="s">
+        <v>218</v>
+      </c>
+      <c r="K102">
+        <v>22887</v>
+      </c>
+      <c r="N102">
+        <v>68198</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>219</v>
+      </c>
+      <c r="R102" t="s">
+        <v>112</v>
+      </c>
+      <c r="S102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>107550</v>
+      </c>
+      <c r="E103">
+        <v>5357</v>
+      </c>
+      <c r="J103" t="s">
+        <v>206</v>
+      </c>
+      <c r="K103">
+        <v>12475</v>
+      </c>
+      <c r="N103">
+        <v>5168</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>42</v>
+      </c>
+      <c r="R103" t="s">
+        <v>112</v>
+      </c>
+      <c r="S103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>93235</v>
+      </c>
+      <c r="E104">
+        <v>728</v>
+      </c>
+      <c r="J104">
+        <v>94107</v>
+      </c>
+      <c r="K104">
+        <v>28828</v>
+      </c>
+      <c r="N104">
+        <v>19483</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>220</v>
+      </c>
+      <c r="R104" t="s">
+        <v>112</v>
+      </c>
+      <c r="S104" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>62017</v>
+      </c>
+      <c r="E105">
+        <v>19733</v>
+      </c>
+      <c r="J105" t="s">
+        <v>57</v>
+      </c>
+      <c r="K105">
+        <v>51</v>
+      </c>
+      <c r="N105">
+        <v>50701</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s">
+        <v>112</v>
+      </c>
+      <c r="S105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>112718</v>
+      </c>
+      <c r="E106">
+        <v>62991</v>
+      </c>
+      <c r="J106" t="s">
+        <v>56</v>
+      </c>
+      <c r="K106">
+        <v>184</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>39</v>
+      </c>
+      <c r="R106" t="s">
+        <v>112</v>
+      </c>
+      <c r="S106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>112718</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>221</v>
+      </c>
+      <c r="R107" t="s">
+        <v>108</v>
+      </c>
+      <c r="S107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>112718</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>222</v>
+      </c>
+      <c r="R108" t="s">
+        <v>108</v>
+      </c>
+      <c r="S108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>56678</v>
+      </c>
+      <c r="B109">
+        <v>113355</v>
+      </c>
+      <c r="C109">
+        <v>170032</v>
+      </c>
+      <c r="D109">
+        <v>226709</v>
+      </c>
+      <c r="F109">
+        <v>226709</v>
+      </c>
+      <c r="G109">
+        <v>113355</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>65445.395429999997</v>
+      </c>
+      <c r="L109">
+        <v>201234.98629999999</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>-1.2</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>107</v>
+      </c>
+      <c r="R109" t="s">
+        <v>108</v>
+      </c>
+      <c r="S109" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>226709</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>181</v>
+      </c>
+      <c r="K110">
+        <v>226709</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>123</v>
+      </c>
+      <c r="R110" t="s">
+        <v>112</v>
+      </c>
+      <c r="S110" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>226704</v>
+      </c>
+      <c r="E111">
+        <v>4495</v>
+      </c>
+      <c r="J111" t="s">
+        <v>224</v>
+      </c>
+      <c r="K111">
+        <v>28422</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>225</v>
+      </c>
+      <c r="R111" t="s">
+        <v>112</v>
+      </c>
+      <c r="S111" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>226708</v>
+      </c>
+      <c r="E112">
+        <v>797</v>
+      </c>
+      <c r="J112" t="s">
+        <v>226</v>
+      </c>
+      <c r="K112">
+        <v>107773</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>227</v>
+      </c>
+      <c r="R112" t="s">
+        <v>112</v>
+      </c>
+      <c r="S112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>28084</v>
+      </c>
+      <c r="E113">
+        <v>660</v>
+      </c>
+      <c r="J113" t="s">
+        <v>228</v>
+      </c>
+      <c r="K113">
+        <v>8270</v>
+      </c>
+      <c r="N113">
+        <v>198625</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>229</v>
+      </c>
+      <c r="R113" t="s">
+        <v>112</v>
+      </c>
+      <c r="S113" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>226691</v>
+      </c>
+      <c r="E114">
+        <v>183989</v>
+      </c>
+      <c r="J114" t="s">
+        <v>230</v>
+      </c>
+      <c r="K114">
+        <v>27249</v>
+      </c>
+      <c r="N114">
+        <v>18</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>231</v>
+      </c>
+      <c r="R114" t="s">
+        <v>112</v>
+      </c>
+      <c r="S114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>120457.25</v>
+      </c>
+      <c r="B115">
+        <v>239798.5</v>
+      </c>
+      <c r="C115">
+        <v>364355.75</v>
+      </c>
+      <c r="D115">
+        <v>402878</v>
+      </c>
+      <c r="F115">
+        <v>480909</v>
+      </c>
+      <c r="G115">
+        <v>241836.98620000001</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>139486.00469999999</v>
+      </c>
+      <c r="L115">
+        <v>414788.7905</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>7.723705E-3</v>
+      </c>
+      <c r="P115">
+        <v>-1.215193068</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>107</v>
+      </c>
+      <c r="R115" t="s">
+        <v>108</v>
+      </c>
+      <c r="S115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>120457.25</v>
+      </c>
+      <c r="B116">
+        <v>239798.5</v>
+      </c>
+      <c r="C116">
+        <v>364355.75</v>
+      </c>
+      <c r="D116">
+        <v>402878</v>
+      </c>
+      <c r="F116">
+        <v>480909</v>
+      </c>
+      <c r="G116">
+        <v>241836.98620000001</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>139486.00469999999</v>
+      </c>
+      <c r="L116">
+        <v>414788.7905</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>7.723705E-3</v>
+      </c>
+      <c r="P116">
+        <v>-1.215193068</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>232</v>
+      </c>
+      <c r="R116" t="s">
+        <v>108</v>
+      </c>
+      <c r="S116" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>402878</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0.39928464699999999</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0.489751991</v>
+      </c>
+      <c r="L117">
+        <v>10510.275659999999</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0.41129328599999998</v>
+      </c>
+      <c r="P117">
+        <v>-1.830846921</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>233</v>
+      </c>
+      <c r="R117" t="s">
+        <v>108</v>
+      </c>
+      <c r="S117" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>402878</v>
+      </c>
+      <c r="F118">
+        <v>399946</v>
+      </c>
+      <c r="G118">
+        <v>3020.999049</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>28343.055649999998</v>
+      </c>
+      <c r="L118">
+        <v>624071.30530000001</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>10.219202020000001</v>
+      </c>
+      <c r="P118">
+        <v>108.6938115</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>234</v>
+      </c>
+      <c r="R118" t="s">
+        <v>108</v>
+      </c>
+      <c r="S118" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>402878</v>
+      </c>
+      <c r="E119">
+        <v>70</v>
+      </c>
+      <c r="J119" t="s">
+        <v>235</v>
+      </c>
+      <c r="K119">
+        <v>202088</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>236</v>
+      </c>
+      <c r="R119" t="s">
+        <v>112</v>
+      </c>
+      <c r="S119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>402878</v>
+      </c>
+      <c r="E120">
+        <v>1178</v>
+      </c>
+      <c r="J120" t="s">
+        <v>237</v>
+      </c>
+      <c r="K120">
+        <v>137289</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>238</v>
+      </c>
+      <c r="R120" t="s">
+        <v>112</v>
+      </c>
+      <c r="S120" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>389538</v>
+      </c>
+      <c r="E121">
+        <v>20454</v>
+      </c>
+      <c r="J121" t="s">
+        <v>239</v>
+      </c>
+      <c r="K121">
+        <v>92339</v>
+      </c>
+      <c r="N121">
+        <v>13340</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>240</v>
+      </c>
+      <c r="R121" t="s">
+        <v>112</v>
+      </c>
+      <c r="S121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -680,11 +6235,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -2071,7 +7626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2083,7 +7638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
